--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_3_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_3_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.58000000000009</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -585,11 +585,11 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.03807707908484</v>
+        <v>47.5261165347294</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.31998118131336, 49.75617297685633]</t>
+          <t>[42.93927393887364, 52.11295913058517]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.729605565039425</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6289739685280393, 1.8302371615508113]</t>
+          <t>[1.540921321580579, 1.7421845146033492]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.15505080035928</v>
+        <v>50.79538107629481</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.31195322988519, 53.99814837083336]</t>
+          <t>[47.7895075122312, 53.80125464035842]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.36428428428435</v>
+        <v>16.63639639639646</v>
       </c>
       <c r="X2" t="n">
-        <v>16.00264264264271</v>
+        <v>16.27571571571577</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.725925925926</v>
+        <v>16.99707707707714</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.3000000000002</v>
+        <v>23.11000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -666,11 +666,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.00905224021074</v>
+        <v>48.83109280088215</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.59143803085159, 47.42666644956988]</t>
+          <t>[43.61157481363027, 54.05061078813402]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.257921446724196</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.132131951084964, 2.383710942363428]</t>
+          <t>[1.8302371615508113, 2.0566582537014257]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.15514336620527</v>
+        <v>55.34334250459163</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.43328826893325, 51.876998463477285]</t>
+          <t>[52.464325744414374, 58.222359264768876]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.92692692692706</v>
+        <v>15.96186186186198</v>
       </c>
       <c r="X3" t="n">
-        <v>14.46046046046058</v>
+        <v>15.54546546546558</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.39339339339353</v>
+        <v>16.37825825825838</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_3_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_3_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.52000000000008</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -585,11 +585,11 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.5261165347294</v>
+        <v>43.47325644079449</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.93927393887364, 52.11295913058517]</t>
+          <t>[39.118088609992604, 47.82842427159638]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 1.7421845146033492]</t>
+          <t>[1.616395018964118, 1.8176582119868865]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.79538107629481</v>
+        <v>52.01738732301115</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.7895075122312, 53.80125464035842]</t>
+          <t>[49.25368956051826, 54.78108508550404]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.63639639639646</v>
+        <v>16.51849849849858</v>
       </c>
       <c r="X2" t="n">
-        <v>16.27571571571577</v>
+        <v>16.15445445445454</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.99707707707714</v>
+        <v>16.88254254254263</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.11000000000017</v>
+        <v>23.56000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -666,11 +666,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.83109280088215</v>
+        <v>45.84430120454783</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.61157481363027, 54.05061078813402]</t>
+          <t>[40.71390070922831, 50.97470169986735]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.943447707626119</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.8302371615508113, 2.0566582537014257]</t>
+          <t>[2.396289891927349, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.34334250459163</v>
+        <v>52.56099821305563</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.464325744414374, 58.222359264768876]</t>
+          <t>[49.816407151091504, 55.30558927501976]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.96186186186198</v>
+        <v>14.1501501501503</v>
       </c>
       <c r="X3" t="n">
-        <v>15.54546546546558</v>
+        <v>13.72564564564579</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.37825825825838</v>
+        <v>14.57465465465481</v>
       </c>
     </row>
   </sheetData>
